--- a/biology/Zoologie/Coryphaenoides/Coryphaenoides.xlsx
+++ b/biology/Zoologie/Coryphaenoides/Coryphaenoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Coryphaenoides sont des poissons des grands fonds. Ils font partie des poissons appelés grenadiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le filet de grenadier fait partie de la cuisine française (poissons pêchés en Atlantique Nord-Est).
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coryphaenoides acrolepis  (Bean, 1884)
@@ -551,16 +567,16 @@
 Coryphaenoides altipinnis  (Günther, 1877)
 Coryphaenoides anguliceps  (Garman, 1899)
 Coryphaenoides ariommus  (Gilbert &amp; Thompson, 1916)
-Coryphaenoides armatus  (Hector, 1875)[1]
+Coryphaenoides armatus  (Hector, 1875)
 Coryphaenoides asper  (Günther, 1877)
 Coryphaenoides asprellus  (Smith &amp; Radcliffe, 1912)
 Coryphaenoides boops  (Garman, 1899)
-Coryphaenoides brevibarbis  (Goode &amp; Bean, 1896)[2]
+Coryphaenoides brevibarbis  (Goode &amp; Bean, 1896)
 Coryphaenoides bucephalus  (Garman, 1899)
 Coryphaenoides bulbiceps  (Garman, 1899)
 Coryphaenoides camurus  (Smith &amp; Radcliffe, 1912)
 Coryphaenoides capito  (Garman, 1899)
-Coryphaenoides carapinus  (Goode &amp; Bean, 1883)[3]
+Coryphaenoides carapinus  (Goode &amp; Bean, 1883)
 Coryphaenoides carminifer  (Garman, 1899)
 Coryphaenoides castaneus  (Shcherbachev &amp; Iwamoto, 1995)
 Coryphaenoides cinereus  (Gilbert, 1896)
@@ -573,12 +589,12 @@
 Coryphaenoides filicauda  (Günther, 1878)
 Coryphaenoides filifer  (Gilbert, 1896)
 Coryphaenoides grahami  (Iwamoto &amp; Shcherbachev, 1991)
-Coryphaenoides guentheri  (Vaillant, 1888)[4]
-Coryphaenoides gypsochilus  (Iwamoto &amp; McCosker, 2001)[5]
+Coryphaenoides guentheri  (Vaillant, 1888)
+Coryphaenoides gypsochilus  (Iwamoto &amp; McCosker, 2001)
 Coryphaenoides hextii  (Alcock, 1890)
 Coryphaenoides hoskynii  (Alcock, 1890)
 Coryphaenoides lecointei  (Dollo, 1900)
-Coryphaenoides leptolepis  (Günther, 1877)[6]
+Coryphaenoides leptolepis  (Günther, 1877)
 Coryphaenoides liocephalus  (Günther, 1887)
 Coryphaenoides longicirrhus  (Gilbert, 1905)
 Coryphaenoides longifilis  (Günther, 1877)
@@ -586,7 +602,7 @@
 Coryphaenoides marginatus  (Steindachner &amp; Döderlein, 1887)
 Coryphaenoides marshalli  (Iwamoto, 1970)
 Coryphaenoides mcmillani  (Iwamoto &amp; Shcherbachev, 1991)
-Coryphaenoides mediterraneus  (Giglioli, 1893)[7]
+Coryphaenoides mediterraneus  (Giglioli, 1893)
 Coryphaenoides mexicanus  (Parr, 1946)
 Coryphaenoides microps  (Smith &amp; Radcliffe, 1912)
 Coryphaenoides microstomus  (McMillan, 1999)
@@ -596,16 +612,16 @@
 Coryphaenoides oreinos  (Iwamoto &amp; Sazonov, 1988)
 Coryphaenoides orthogrammus  (Smith &amp; Radcliffe, 1912)
 Coryphaenoides paramarshalli  (Merrett, 1983)
-Coryphaenoides profundicolus  (Nybelin, 1957)[8]
+Coryphaenoides profundicolus  (Nybelin, 1957)
 Coryphaenoides rudis  (Günther, 1878)
-Coryphaenoides rupestris  (Gunnerus, 1765)[9]
+Coryphaenoides rupestris  (Gunnerus, 1765)
 Coryphaenoides semiscaber  (Gilbert &amp; Hubbs, 1920)
 Coryphaenoides serrulatus  (Günther, 1878)
 Coryphaenoides sibogae  (Weber &amp; de Beaufort, 1929)
 Coryphaenoides spinulosus  (Gilbert &amp; Burke, 1912)
 Coryphaenoides striaturus  (Barnard, 1925)
 Coryphaenoides subserrulatus  (Makushok, 1976)
-Coryphaenoides thelestomus  (Maul, 1951)[10]
+Coryphaenoides thelestomus  (Maul, 1951)
 Coryphaenoides tydemani  (Weber, 1913)
 Coryphaenoides woodmasoni  (Alcock, 1890)
 Coryphaenoides yaquinae  (Iwamoto &amp; Stein, 1974)
